--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AC9D6E-50DD-459F-B654-AA340C1B5515}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BD7BBC-E6EB-4A8E-B1FC-51E710367D17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>x</t>
   </si>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5CB6CB-3CE1-433C-9FC8-2BE9235D729D}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,251 +537,285 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:G4" si="0">F3-F2-F11</f>
-        <v>0.29166666666666663</v>
+        <f>F3-F2-F5</f>
+        <v>0.28125</v>
       </c>
       <c r="G4" s="4">
+        <f>G3-G2-G5</f>
+        <v>0.18750000000000003</v>
+      </c>
+      <c r="H4" s="3">
+        <f>SUM(C4:G4)*24</f>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>45117</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>45121</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C7-C6-C9</f>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="D8" s="4">
+        <f>D7-D6-D9</f>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="E8" s="4">
+        <f>E7-E6-E9</f>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="F8" s="4">
+        <f>F7-F6-F9</f>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="G8" s="4">
+        <f>G7-G6-G9</f>
+        <v>0.18750000000000003</v>
+      </c>
+      <c r="H8" s="3">
+        <f>SUM(C8:G8)*24</f>
+        <v>34.499999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>45124</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.3125</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.3125</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.3125</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.3125</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>45128</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <f>C11-C10-C13</f>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:G12" si="0">D11-D10-D13</f>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
         <v>0.18750000000000003</v>
       </c>
-      <c r="H4" s="3">
-        <f>SUM(C4:G4)*24</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>45117</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.3125</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.3125</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.3125</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.3125</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>45121</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4">
-        <f>C6-C5-C11</f>
-        <v>0.31249999999999994</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" ref="D7:G7" si="1">D6-D5-D11</f>
-        <v>0.31249999999999994</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.31249999999999994</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.31249999999999994</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18750000000000003</v>
-      </c>
-      <c r="H7" s="3">
-        <f>SUM(C7:G7)*24</f>
+      <c r="H12" s="3">
+        <f>SUM(C12:G12)*24</f>
         <v>34.499999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>45124</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.3125</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.3125</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.3125</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.3125</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>45128</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4">
-        <f>C9-C8-C11</f>
-        <v>0.31249999999999994</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" ref="D10:G10" si="2">D9-D8-D11</f>
-        <v>0.31249999999999994</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="2"/>
-        <v>0.31249999999999994</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="2"/>
-        <v>0.31249999999999994</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="2"/>
-        <v>0.18750000000000003</v>
-      </c>
-      <c r="H10" s="3">
-        <f>SUM(C10:G10)*24</f>
-        <v>34.499999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D13" s="2">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E13" s="2">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F13" s="2">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G13" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5" t="s">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3">
-        <f>H10+H7+H4</f>
-        <v>80.499999999999986</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="3">
+        <f>H12+H8+H4</f>
+        <v>80.249999999999986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>80</v>
       </c>
-      <c r="H13" s="6">
-        <f>G13*(F13/100)+G13</f>
+      <c r="H15" s="6">
+        <f>G15*(F15/100)+G15</f>
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45111</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C17" s="1">
-        <v>45112</v>
+        <v>45110</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
         <v>0</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C20" s="1">
         <v>45113</v>
       </c>
     </row>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BD7BBC-E6EB-4A8E-B1FC-51E710367D17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB738F93-572A-491A-ACAD-76DDF2423629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>x</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Pause:</t>
+  </si>
+  <si>
+    <t>Pädagogischer Tag</t>
   </si>
 </sst>
 </file>
@@ -73,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,8 +84,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +122,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -126,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -146,6 +167,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -460,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5CB6CB-3CE1-433C-9FC8-2BE9235D729D}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +534,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G2" s="9">
-        <v>0.3125</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -542,11 +569,11 @@
       </c>
       <c r="G4" s="4">
         <f>G3-G2-G5</f>
-        <v>0.18750000000000003</v>
+        <v>0.10416666666666673</v>
       </c>
       <c r="H4" s="3">
         <f>SUM(C4:G4)*24</f>
-        <v>11.25</v>
+        <v>9.2500000000000018</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -668,8 +695,8 @@
       <c r="C10" s="15">
         <v>0.3125</v>
       </c>
-      <c r="D10" s="15">
-        <v>0.3125</v>
+      <c r="D10" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="15">
         <v>0.3125</v>
@@ -691,9 +718,7 @@
       <c r="C11" s="15">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D11" s="15">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="D11" s="20"/>
       <c r="E11" s="15">
         <v>0.66666666666666663</v>
       </c>
@@ -712,12 +737,9 @@
         <f>C11-C10-C13</f>
         <v>0.31249999999999994</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" ref="D12:G12" si="0">D11-D10-D13</f>
-        <v>0.31249999999999994</v>
-      </c>
+      <c r="D12" s="20"/>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:G12" si="0">E11-E10-E13</f>
         <v>0.31249999999999994</v>
       </c>
       <c r="F12" s="4">
@@ -730,7 +752,7 @@
       </c>
       <c r="H12" s="3">
         <f>SUM(C12:G12)*24</f>
-        <v>34.499999999999993</v>
+        <v>26.999999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -741,9 +763,7 @@
       <c r="C13" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D13" s="2">
-        <v>4.1666666666666699E-2</v>
-      </c>
+      <c r="D13" s="20"/>
       <c r="E13" s="2">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -754,72 +774,136 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3">
-        <f>H12+H8+H4</f>
-        <v>80.249999999999986</v>
-      </c>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>45131</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19">
+        <v>0.3125</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>80</v>
-      </c>
-      <c r="H15" s="6">
-        <f>G15*(F15/100)+G15</f>
-        <v>80</v>
-      </c>
+      <c r="A15" s="17">
+        <v>45135</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <f>D15-D14-D17</f>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3">
+        <f>SUM(C16:G16)*24</f>
+        <v>7.4999999999999982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3">
+        <f>H16+H8+H12+H4</f>
+        <v>78.249999999999986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>80</v>
+      </c>
+      <c r="H19" s="6">
+        <f>G19*(F19/100)+G19</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="16">
         <v>0.3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C21" s="1">
         <v>45110</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
         <v>0.2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C22" s="1">
         <v>45111</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="16">
         <v>0.1</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C23" s="1">
         <v>45112</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
         <v>0</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C24" s="1">
         <v>45113</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D10:D13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB738F93-572A-491A-ACAD-76DDF2423629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDFD4D-868A-4C09-A284-E333B489E685}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="12">
-        <v>0.3125</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="D6" s="12">
         <v>0.3125</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="C8" s="4">
         <f>C7-C6-C9</f>
-        <v>0.31249999999999994</v>
+        <v>0.30208333333333326</v>
       </c>
       <c r="D8" s="4">
         <f>D7-D6-D9</f>
@@ -662,7 +662,7 @@
       </c>
       <c r="H8" s="3">
         <f>SUM(C8:G8)*24</f>
-        <v>34.499999999999993</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>78.249999999999986</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDFD4D-868A-4C09-A284-E333B489E685}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2D7810-B0D4-4370-808D-5122A2FE6E82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="C8" s="4">
         <f>C7-C6-C9</f>
-        <v>0.30208333333333326</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="D8" s="4">
         <f>D7-D6-D9</f>
@@ -662,7 +662,7 @@
       </c>
       <c r="H8" s="3">
         <f>SUM(C8:G8)*24</f>
-        <v>34.25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="D9" s="2">
         <v>4.1666666666666699E-2</v>
@@ -844,7 +844,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>78</v>
+        <v>77.75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2D7810-B0D4-4370-808D-5122A2FE6E82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B50A51-86E5-4FF6-BE46-62BE52CB2AEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="D7" s="12">
         <v>0.66666666666666663</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="C8" s="4">
         <f>C7-C6-C9</f>
-        <v>0.29166666666666663</v>
+        <v>0.3125</v>
       </c>
       <c r="D8" s="4">
         <f>D7-D6-D9</f>
@@ -662,7 +662,7 @@
       </c>
       <c r="H8" s="3">
         <f>SUM(C8:G8)*24</f>
-        <v>34</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>77.75</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B50A51-86E5-4FF6-BE46-62BE52CB2AEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE98624-1B7D-4C85-B2F7-7C5218604DDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
       </c>
       <c r="D8" s="4">
         <f>D7-D6-D9</f>
-        <v>0.31249999999999994</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="E8" s="4">
         <f>E7-E6-E9</f>
@@ -662,7 +662,7 @@
       </c>
       <c r="H8" s="3">
         <f>SUM(C8:G8)*24</f>
-        <v>34.5</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>4.1666666666666699E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="E9" s="2">
         <v>4.1666666666666699E-2</v>
@@ -844,7 +844,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>78.25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE98624-1B7D-4C85-B2F7-7C5218604DDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3A2A30-8ECB-406A-A2CF-34635B44AA89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +624,7 @@
         <v>0.6875</v>
       </c>
       <c r="D7" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="E7" s="12">
         <v>0.66666666666666663</v>
@@ -646,7 +646,7 @@
       </c>
       <c r="D8" s="4">
         <f>D7-D6-D9</f>
-        <v>0.30208333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="E8" s="4">
         <f>E7-E6-E9</f>
@@ -662,7 +662,7 @@
       </c>
       <c r="H8" s="3">
         <f>SUM(C8:G8)*24</f>
-        <v>34.25</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>5.2083333333333336E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E9" s="2">
         <v>4.1666666666666699E-2</v>
@@ -844,7 +844,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>78</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3A2A30-8ECB-406A-A2CF-34635B44AA89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D2578D-C026-45E3-8DF5-BA1AC640948E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +624,7 @@
         <v>0.6875</v>
       </c>
       <c r="D7" s="12">
-        <v>0.6875</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E7" s="12">
         <v>0.66666666666666663</v>
@@ -646,7 +646,7 @@
       </c>
       <c r="D8" s="4">
         <f>D7-D6-D9</f>
-        <v>0.3125</v>
+        <v>0.32291666666666663</v>
       </c>
       <c r="E8" s="4">
         <f>E7-E6-E9</f>
@@ -662,7 +662,7 @@
       </c>
       <c r="H8" s="3">
         <f>SUM(C8:G8)*24</f>
-        <v>34.5</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>78.25</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D2578D-C026-45E3-8DF5-BA1AC640948E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF47FFF-39B1-4234-93C2-A2DB06649BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF47FFF-39B1-4234-93C2-A2DB06649BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C4921-8567-465B-B254-B1428474F2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,10 +627,10 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="E7" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="F7" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="G7" s="12">
         <v>0.52083333333333337</v>
@@ -650,11 +650,11 @@
       </c>
       <c r="E8" s="4">
         <f>E7-E6-E9</f>
-        <v>0.31249999999999994</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="F8" s="4">
         <f>F7-F6-F9</f>
-        <v>0.31249999999999994</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G8" s="4">
         <f>G7-G6-G9</f>
@@ -662,7 +662,7 @@
       </c>
       <c r="H8" s="3">
         <f>SUM(C8:G8)*24</f>
-        <v>34.75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>4.1666666666666699E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="F9" s="2">
         <v>4.1666666666666699E-2</v>
@@ -716,14 +716,14 @@
         <v>7</v>
       </c>
       <c r="C11" s="15">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="15">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="F11" s="15">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="G11" s="15">
         <v>0.52083333333333337</v>
@@ -735,16 +735,16 @@
       </c>
       <c r="C12" s="4">
         <f>C11-C10-C13</f>
-        <v>0.31249999999999994</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="4">
         <f t="shared" ref="E12:G12" si="0">E11-E10-E13</f>
-        <v>0.31249999999999994</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0.31249999999999994</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
@@ -752,7 +752,7 @@
       </c>
       <c r="H12" s="3">
         <f>SUM(C12:G12)*24</f>
-        <v>26.999999999999993</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>78.5</v>
+        <v>80.25</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C4921-8567-465B-B254-B1428474F2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1854315-9645-468B-8E5D-157907CC94AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +627,7 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="E7" s="12">
-        <v>0.6875</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="F7" s="12">
         <v>0.6875</v>
@@ -650,7 +650,7 @@
       </c>
       <c r="E8" s="4">
         <f>E7-E6-E9</f>
-        <v>0.30208333333333331</v>
+        <v>0.31249999999999994</v>
       </c>
       <c r="F8" s="4">
         <f>F7-F6-F9</f>
@@ -662,7 +662,7 @@
       </c>
       <c r="H8" s="3">
         <f>SUM(C8:G8)*24</f>
-        <v>35</v>
+        <v>35.249999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>80.25</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1854315-9645-468B-8E5D-157907CC94AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5878C1CD-59B3-45C7-8452-C9878F767632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,7 @@
         <v>0.6875</v>
       </c>
       <c r="G7" s="12">
-        <v>0.52083333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -658,11 +658,11 @@
       </c>
       <c r="G8" s="4">
         <f>G7-G6-G9</f>
-        <v>0.18750000000000003</v>
+        <v>0.23958333333333329</v>
       </c>
       <c r="H8" s="3">
         <f>SUM(C8:G8)*24</f>
-        <v>35.249999999999993</v>
+        <v>36.499999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="G9" s="2">
-        <v>2.0833333333333332E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>80.5</v>
+        <v>81.75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5878C1CD-59B3-45C7-8452-C9878F767632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233F034C-F2A4-4521-8695-9F8E9FFABF87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>x</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Pädagogischer Tag</t>
+  </si>
+  <si>
+    <t>Feueralarm</t>
+  </si>
+  <si>
+    <t>30min</t>
   </si>
 </sst>
 </file>
@@ -76,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +96,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,8 +148,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,11 +162,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -173,8 +208,11 @@
     <xf numFmtId="20" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,7 +528,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +668,7 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="F7" s="12">
-        <v>0.6875</v>
+        <v>0.53125</v>
       </c>
       <c r="G7" s="12">
         <v>0.60416666666666663</v>
@@ -654,7 +692,7 @@
       </c>
       <c r="F8" s="4">
         <f>F7-F6-F9</f>
-        <v>0.33333333333333331</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="G8" s="4">
         <f>G7-G6-G9</f>
@@ -662,7 +700,7 @@
       </c>
       <c r="H8" s="3">
         <f>SUM(C8:G8)*24</f>
-        <v>36.499999999999993</v>
+        <v>31.999999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -679,7 +717,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>4.1666666666666699E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="G9" s="2">
         <v>5.2083333333333336E-2</v>
@@ -726,7 +764,7 @@
         <v>0.6875</v>
       </c>
       <c r="G11" s="15">
-        <v>0.52083333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -748,11 +786,11 @@
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>0.18750000000000003</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="H12" s="3">
         <f>SUM(C12:G12)*24</f>
-        <v>28.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -798,7 +836,7 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -811,14 +849,14 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4">
         <f>D15-D14-D17</f>
-        <v>0.31249999999999994</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3">
         <f>SUM(C16:G16)*24</f>
-        <v>7.4999999999999982</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,7 +882,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>81.75</v>
+        <v>79.75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -873,6 +911,15 @@
       </c>
       <c r="C21" s="1">
         <v>45110</v>
+      </c>
+      <c r="F21" s="21">
+        <v>45120</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233F034C-F2A4-4521-8695-9F8E9FFABF87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CE9189-F324-4845-AA58-93DF96DC1B0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -205,11 +205,11 @@
     <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1"/>
     <xf numFmtId="20" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
@@ -648,7 +648,7 @@
         <v>0.3125</v>
       </c>
       <c r="G6" s="12">
-        <v>0.3125</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -692,15 +692,15 @@
       </c>
       <c r="F8" s="4">
         <f>F7-F6-F9</f>
-        <v>0.14583333333333331</v>
+        <v>0.11458333333333333</v>
       </c>
       <c r="G8" s="4">
         <f>G7-G6-G9</f>
-        <v>0.23958333333333329</v>
+        <v>0.18749999999999994</v>
       </c>
       <c r="H8" s="3">
         <f>SUM(C8:G8)*24</f>
-        <v>31.999999999999993</v>
+        <v>29.999999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,10 +717,10 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>7.2916666666666671E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="G9" s="2">
-        <v>5.2083333333333336E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
       <c r="C10" s="15">
         <v>0.3125</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="15">
@@ -756,7 +756,7 @@
       <c r="C11" s="15">
         <v>0.6875</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="15">
         <v>0.6875</v>
       </c>
@@ -764,7 +764,7 @@
         <v>0.6875</v>
       </c>
       <c r="G11" s="15">
-        <v>0.60416666666666663</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <f>C11-C10-C13</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="4">
         <f t="shared" ref="E12:G12" si="0">E11-E10-E13</f>
         <v>0.33333333333333331</v>
@@ -786,11 +786,11 @@
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>0.27083333333333331</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="H12" s="3">
         <f>SUM(C12:G12)*24</f>
-        <v>30.5</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
       <c r="C13" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="2">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>79.75</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -912,13 +912,13 @@
       <c r="C21" s="1">
         <v>45110</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>45120</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="21" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CE9189-F324-4845-AA58-93DF96DC1B0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FEBAAC-44FE-455B-B776-C87421EE6774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +671,7 @@
         <v>0.53125</v>
       </c>
       <c r="G7" s="12">
-        <v>0.60416666666666663</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -696,11 +696,11 @@
       </c>
       <c r="G8" s="4">
         <f>G7-G6-G9</f>
-        <v>0.18749999999999994</v>
+        <v>0.17708333333333331</v>
       </c>
       <c r="H8" s="3">
         <f>SUM(C8:G8)*24</f>
-        <v>29.999999999999993</v>
+        <v>29.749999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="15">
-        <v>0.3125</v>
+        <v>0.34375</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>13</v>
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="15">
-        <v>0.6875</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="15">
@@ -773,7 +773,7 @@
       </c>
       <c r="C12" s="4">
         <f>C11-C10-C13</f>
-        <v>0.33333333333333331</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="4">
@@ -790,7 +790,7 @@
       </c>
       <c r="H12" s="3">
         <f>SUM(C12:G12)*24</f>
-        <v>30.25</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="2">
@@ -882,7 +882,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>77.5</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FEBAAC-44FE-455B-B776-C87421EE6774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB502C-24E6-4294-973B-D18A1AB0B84D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="15">
-        <v>0.3125</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="F10" s="15">
         <v>0.3125</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="15">
-        <v>0.6875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F11" s="15">
         <v>0.6875</v>
@@ -778,7 +778,7 @@
       <c r="D12" s="22"/>
       <c r="E12" s="4">
         <f t="shared" ref="E12:G12" si="0">E11-E10-E13</f>
-        <v>0.33333333333333331</v>
+        <v>0.28124999999999994</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
@@ -790,7 +790,7 @@
       </c>
       <c r="H12" s="3">
         <f>SUM(C12:G12)*24</f>
-        <v>28.75</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="2">
-        <v>4.1666666666666699E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F13" s="2">
         <v>4.1666666666666699E-2</v>
@@ -882,7 +882,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>75.75</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webseiten\Abschlussprojekt\Schiffe-versenken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB502C-24E6-4294-973B-D18A1AB0B84D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2592EC6C-3040-4228-B9E8-C308A41C62B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B588D240-05C9-4689-9B05-EEA7D26A57F2}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
         <v>0.3125</v>
       </c>
       <c r="G10" s="15">
-        <v>0.3125</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F11" s="15">
-        <v>0.6875</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="G11" s="15">
         <v>0.59375</v>
@@ -782,15 +782,15 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>0.26041666666666669</v>
+        <v>0.15625</v>
       </c>
       <c r="H12" s="3">
         <f>SUM(C12:G12)*24</f>
-        <v>27.5</v>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -806,10 +806,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="F13" s="2">
-        <v>4.1666666666666699E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="G13" s="2">
-        <v>2.0833333333333332E-2</v>
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -819,9 +819,11 @@
       <c r="B14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="19">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="D14" s="19">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -834,9 +836,11 @@
       <c r="B15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="19">
+        <v>0.69791666666666663</v>
+      </c>
       <c r="D15" s="19">
-        <v>0.6875</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -846,17 +850,20 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4">
+        <f>C15-C14-C17</f>
+        <v>0.35416666666666663</v>
+      </c>
       <c r="D16" s="4">
         <f>D15-D14-D17</f>
-        <v>0.33333333333333331</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3">
         <f>SUM(C16:G16)*24</f>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -864,9 +871,11 @@
         <v>12</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
       <c r="D17" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -882,7 +891,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3">
         <f>H16+H8+H12+H4</f>
-        <v>74.5</v>
+        <v>79.999999999999986</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
